--- a/public/be_assets/exam/tempImportExam.xlsx
+++ b/public/be_assets/exam/tempImportExam.xlsx
@@ -15,34 +15,654 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">TEMPLATE UJIAN URAIAN
-</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SOAL</t>
-  </si>
-  <si>
-    <t>soal tanpa gmbr no 1</t>
-  </si>
-  <si>
-    <t>soal tanpa gmbr no 3 test soal soal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soal tanpa gmbr no 3 test soal soal soal </t>
-  </si>
-  <si>
-    <t>Soal tanpa gambar no 6</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_dd679054-a098-4688-8089-f91aaf6fe8c2.png</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_55a817d0-4840-4b71-a16a-411d3e78e2b1.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+  <si>
+    <t>KODE</t>
+  </si>
+  <si>
+    <t>JENIS</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>JAWABAN</t>
+  </si>
+  <si>
+    <t>c9a2d39e91</t>
+  </si>
+  <si>
+    <t>Soal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suatu proses melihat, mendengar, menghayati, menilai, menjiwai, dan membandingkan atau menghargai suatu karya seni disebut </t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>motivasi belajar</t>
+  </si>
+  <si>
+    <t>apresiasi</t>
+  </si>
+  <si>
+    <t>analisis</t>
+  </si>
+  <si>
+    <t>kritik seni</t>
+  </si>
+  <si>
+    <t>evaluasi</t>
+  </si>
+  <si>
+    <t>8d6a8f9c75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktivitas mengindera karya seni rupa, merasakan, menikmati, menghayati, dan menghargai nilai-nilai keindahan dalam karya seni rupa serta menghormati keberagaman konsep dan variasi konvensi artistik eksistensi dunia seni rupa disebut apresiasi . . . </t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>seni rupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seni musik </t>
+  </si>
+  <si>
+    <t>seni teater</t>
+  </si>
+  <si>
+    <t>seni sastra</t>
+  </si>
+  <si>
+    <t>d0385d6811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentasi merupakan sebuah bahan yang dapat terkandung dalam sebuah bentuk, cara, dan jenis apapun ditempat dalam suatu informasi yang dapat direkam merupakan pengertian dokumentasi menurut </t>
+  </si>
+  <si>
+    <t>Tung Palan</t>
+  </si>
+  <si>
+    <t>Nurhadi Magetsari</t>
+  </si>
+  <si>
+    <t>Paul Otlet</t>
+  </si>
+  <si>
+    <t>KBBI</t>
+  </si>
+  <si>
+    <t>Mohammad Yamin</t>
+  </si>
+  <si>
+    <t>27210b9028</t>
+  </si>
+  <si>
+    <t>Orang yang bertugas menilai sebuah karya seni lukis disebut</t>
+  </si>
+  <si>
+    <t>musisi</t>
+  </si>
+  <si>
+    <t>kurator</t>
+  </si>
+  <si>
+    <t>apresiator</t>
+  </si>
+  <si>
+    <t>komponis</t>
+  </si>
+  <si>
+    <t>konduktor</t>
+  </si>
+  <si>
+    <t>68b27506d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaya merupakan sistem pengetahuan yang diperoleh manusia melalui proses belajar, yang kemudian mereka gunakan untuk menginterpretasikan dunia sekelilingnya, sekaligus untuk menyusun strategi perilaku dalam menghadapi dunia sekitar merupakan pendapat dari </t>
+  </si>
+  <si>
+    <t>Aristoteles</t>
+  </si>
+  <si>
+    <t>Ki Hajar Dewantara</t>
+  </si>
+  <si>
+    <t>Koentjaraningrat</t>
+  </si>
+  <si>
+    <t>Spradley</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>1e114deacf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada saat melakukan apresiasi, sebuah hasil karya musik dikatakan baik dan berkualitas, salah satunya apabila </t>
+  </si>
+  <si>
+    <t>menggunakan nada nada yang sulit</t>
+  </si>
+  <si>
+    <t>aransemen musik sangat susah untuk diikuti</t>
+  </si>
+  <si>
+    <t>memiliki pola nada dan irama yang menarik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mudah untuk disesuaikan dengan alat musik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tidak mudah untuk dilakukan perubahan aransemen </t>
+  </si>
+  <si>
+    <t>502312ad5a</t>
+  </si>
+  <si>
+    <t>Kebudayaan kebendaan berupa alat dan teknologi yang dibutuhkan oleh masyarakat untuk menguasai alam menurut definisi kebudayaan dari Selo Soemarjan termasuk kedalam bagian yang dinamakan</t>
+  </si>
+  <si>
+    <t>rasa</t>
+  </si>
+  <si>
+    <t>karya</t>
+  </si>
+  <si>
+    <t>jiwa</t>
+  </si>
+  <si>
+    <t>cipta</t>
+  </si>
+  <si>
+    <t>karsa</t>
+  </si>
+  <si>
+    <t>d8a06fc1ba</t>
+  </si>
+  <si>
+    <t>Hasil yang ditampilkan dalam karya seni rupa merupakan sebuah karya dari</t>
+  </si>
+  <si>
+    <t>alam</t>
+  </si>
+  <si>
+    <t>seniman</t>
+  </si>
+  <si>
+    <t>kolektor</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>kesenian daerah</t>
+  </si>
+  <si>
+    <t>c154ec4389</t>
+  </si>
+  <si>
+    <t>Kebudayaan memiliki tiga wujud, yaitu</t>
+  </si>
+  <si>
+    <t>kebudayaan sebagai konsep, kebudayaan sebagai aktifitas, dan kebudayaan sebagai artefak</t>
+  </si>
+  <si>
+    <t>kebudayaan sebagai kondisi, kebudayaan sebagai aktivitas, dan kebudayaan sebagai artefak</t>
+  </si>
+  <si>
+    <t>kebudayaan sebagai konsep, kebudayaan sebagai aktor, dan kebudayaan sebagai artefak</t>
+  </si>
+  <si>
+    <t>kebudayaan sebagai adat, kebudayaan sebagai aktifitas, dan kebudayaan sebagai artefak</t>
+  </si>
+  <si>
+    <t>e30606a7ea</t>
+  </si>
+  <si>
+    <t>Tidak semua bunyi dapat dikatakan sebagai musik, karena</t>
+  </si>
+  <si>
+    <t>musik merupakan bunyi yang memiliki nada tunggal</t>
+  </si>
+  <si>
+    <t>bunyi tanpa irama bukan merupakan musik</t>
+  </si>
+  <si>
+    <t>bunyi yang memiliki irama dan melodi yang bisa dikatakan sebagai musik</t>
+  </si>
+  <si>
+    <t>musik hanya dapat didengar jika ada bunyi</t>
+  </si>
+  <si>
+    <t>musik tidak memerlukan bunyi untuk didengar</t>
+  </si>
+  <si>
+    <t>12ec1e445a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berikut perwujudan kebudayaan yang dapat dilihat secara nyata adalah </t>
+  </si>
+  <si>
+    <t>peralatan hidup</t>
+  </si>
+  <si>
+    <t>religi</t>
+  </si>
+  <si>
+    <t>status sosial</t>
+  </si>
+  <si>
+    <t>bahasa</t>
+  </si>
+  <si>
+    <t>pola-pola perilaku</t>
+  </si>
+  <si>
+    <t>6e0886219c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada kritik karya seni rupa, hal yang dikritik adalah </t>
+  </si>
+  <si>
+    <t>kualitas</t>
+  </si>
+  <si>
+    <t>waktu</t>
+  </si>
+  <si>
+    <t>teknik</t>
+  </si>
+  <si>
+    <t>penampilan</t>
+  </si>
+  <si>
+    <t>regulasi</t>
+  </si>
+  <si>
+    <t>357f95590d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentasi berfungsi sebagai dokumen yang melindungi dan menyimpan fisik agar </t>
+  </si>
+  <si>
+    <t>dapat digunakan orang lain</t>
+  </si>
+  <si>
+    <t>memberi pengaruh pada sesama</t>
+  </si>
+  <si>
+    <t>menghindari kerusakan</t>
+  </si>
+  <si>
+    <t>mengurangi daya jualnya</t>
+  </si>
+  <si>
+    <t>meningkatkan nilai estetiknya</t>
+  </si>
+  <si>
+    <t>841d54404d</t>
+  </si>
+  <si>
+    <t>Istilah lain dari ragam hias flora adalah</t>
+  </si>
+  <si>
+    <t>geometris</t>
+  </si>
+  <si>
+    <t>figuratif</t>
+  </si>
+  <si>
+    <t>tumbuhan</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>hewan</t>
+  </si>
+  <si>
+    <t>46d594c0df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penggunaan ragam hias motif figuratif dapat dijumpai didaerah </t>
+  </si>
+  <si>
+    <t>Sumatera dan Bali</t>
+  </si>
+  <si>
+    <t>Bali dan Sulawesi</t>
+  </si>
+  <si>
+    <t>Sulawesi dan Papua</t>
+  </si>
+  <si>
+    <t>Jawa dan Bali</t>
+  </si>
+  <si>
+    <t>Papua dan Kalimantan</t>
+  </si>
+  <si>
+    <t>4619ef1645</t>
+  </si>
+  <si>
+    <t>Gambar berbagai macam ragam hias ada banyak macamnya. Berikut ini termasuk gambar pola geometris dalam ragam hias adalah</t>
+  </si>
+  <si>
+    <t>kawung</t>
+  </si>
+  <si>
+    <t>pilin</t>
+  </si>
+  <si>
+    <t>koplikan</t>
+  </si>
+  <si>
+    <t>tumpal</t>
+  </si>
+  <si>
+    <t>non geometris</t>
+  </si>
+  <si>
+    <t>86a4423951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berdasarkan bentuknya, ragam hias di nusantara dibedakan menjadi 3 yaitu </t>
+  </si>
+  <si>
+    <t>flora, fauna, figuratif</t>
+  </si>
+  <si>
+    <t>fauna, geometris, dan hayati</t>
+  </si>
+  <si>
+    <t>2 dimensi, 3 dimensi, dan non geometris</t>
+  </si>
+  <si>
+    <t>fauna, figuratif, non figuratif</t>
+  </si>
+  <si>
+    <t>flora, tumbuhan, fauna</t>
+  </si>
+  <si>
+    <t>77e62910e9</t>
+  </si>
+  <si>
+    <t>Salah satu cara untuk mengapresiasi ragam hias di nusantara adalah dengan cara</t>
+  </si>
+  <si>
+    <t>memamerkan ragam hias nusantara ke desa sendiri, tidak perlu sampai keluar negeri</t>
+  </si>
+  <si>
+    <t>membeli batik yang bergambar ragam hias sebanyak banyaknya</t>
+  </si>
+  <si>
+    <t>tidak suka ragam hias karena bersifat kuno</t>
+  </si>
+  <si>
+    <t>menyukai ragam hias dan sering melihat acara pameran batik atau ragam hias sebagai bentuk cinta terhadap karya ragam hias</t>
+  </si>
+  <si>
+    <t>tidak menunjukkan kecintaan terhadap karya ragam hias</t>
+  </si>
+  <si>
+    <t>8c163689ca</t>
+  </si>
+  <si>
+    <t>Seni ragam hias juga dikenali sebagai</t>
+  </si>
+  <si>
+    <t>perhiasan</t>
+  </si>
+  <si>
+    <t>unit budaya</t>
+  </si>
+  <si>
+    <t>ornamen</t>
+  </si>
+  <si>
+    <t>corak</t>
+  </si>
+  <si>
+    <t>sastra</t>
+  </si>
+  <si>
+    <t>949d5b4796</t>
+  </si>
+  <si>
+    <t>Ragam hias pada kain dibuat dengan teknik, kecuali</t>
+  </si>
+  <si>
+    <t>lukis</t>
+  </si>
+  <si>
+    <t>bordir</t>
+  </si>
+  <si>
+    <t>ukir</t>
+  </si>
+  <si>
+    <t>sulam</t>
+  </si>
+  <si>
+    <t>batik</t>
+  </si>
+  <si>
+    <t>e80f9e49a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berikut upaya nyata untuk mengembangkan peraaan simpati dalam melakukan apresiasi karya seni budaya kecuali </t>
+  </si>
+  <si>
+    <t>perupa murni</t>
+  </si>
+  <si>
+    <t>perkria</t>
+  </si>
+  <si>
+    <t>pengenalan akan tokoh-tokoh budaya</t>
+  </si>
+  <si>
+    <t>membuat seni rupa</t>
+  </si>
+  <si>
+    <t>pendesain</t>
+  </si>
+  <si>
+    <t>051b369aa1</t>
+  </si>
+  <si>
+    <t>Gerak musik yang teratur serta tidak tampak dalam lagu, melainkan dapat dirasakan setelah lagu tersebut dialunkan disebut</t>
+  </si>
+  <si>
+    <t>melodi</t>
+  </si>
+  <si>
+    <t>irama</t>
+  </si>
+  <si>
+    <t>nada</t>
+  </si>
+  <si>
+    <t>bunyi</t>
+  </si>
+  <si>
+    <t>tangga nada</t>
+  </si>
+  <si>
+    <t>793e529905</t>
+  </si>
+  <si>
+    <t>Berikut yang bukan merupakan instrumen musik yang digunakan dalam orkes keroncong yaitu</t>
+  </si>
+  <si>
+    <t>biola</t>
+  </si>
+  <si>
+    <t>gitar akustik</t>
+  </si>
+  <si>
+    <t>saksofon</t>
+  </si>
+  <si>
+    <t>ukulele</t>
+  </si>
+  <si>
+    <t>ansambel</t>
+  </si>
+  <si>
+    <t>fa1ad37ecb</t>
+  </si>
+  <si>
+    <t>Ragam hias yang diterapkan pada kayu dan batu dibuat dengan teknik</t>
+  </si>
+  <si>
+    <t>disulam</t>
+  </si>
+  <si>
+    <t>diarsir</t>
+  </si>
+  <si>
+    <t>dijahit</t>
+  </si>
+  <si>
+    <t>dipahat</t>
+  </si>
+  <si>
+    <t>ditenun</t>
+  </si>
+  <si>
+    <t>576df0f3fb</t>
+  </si>
+  <si>
+    <t>Motif ragam hias dapat dijumpai pada hasil karya berupa</t>
+  </si>
+  <si>
+    <t>lukisan, batik, origami</t>
+  </si>
+  <si>
+    <t>patung, anyaman, lukisan</t>
+  </si>
+  <si>
+    <t>batik, ukiran, anyaman</t>
+  </si>
+  <si>
+    <t>makrame, sulam, anyaman</t>
+  </si>
+  <si>
+    <t>patung, origami, kolase</t>
+  </si>
+  <si>
+    <t>1b7f616d89</t>
+  </si>
+  <si>
+    <t>Suatu bentuk dasar hiasan yang pada umumnya dujadikan pola secara berulang-ulang pada suatu hasil karya seni atau kerajinan disebut</t>
+  </si>
+  <si>
+    <t>ragam hias</t>
+  </si>
+  <si>
+    <t>ragam lukis</t>
+  </si>
+  <si>
+    <t>ragam rupa</t>
+  </si>
+  <si>
+    <t>ragam budaya</t>
+  </si>
+  <si>
+    <t>ragam sastra</t>
+  </si>
+  <si>
+    <t>66bda8bdee</t>
+  </si>
+  <si>
+    <t>Motif hias yang dikembangkan dari bentuk bentuk geometris dan kemudia digayakan sesuai dengan selera dan imajinasi pembuatnya adalah</t>
+  </si>
+  <si>
+    <t>ragam hias flora</t>
+  </si>
+  <si>
+    <t>ragam hias fauna</t>
+  </si>
+  <si>
+    <t>ragam hias manusia</t>
+  </si>
+  <si>
+    <t>ragam hias figuratif</t>
+  </si>
+  <si>
+    <t>ragam hias geometris</t>
+  </si>
+  <si>
+    <t>64f9f32559</t>
+  </si>
+  <si>
+    <t>Seorang seniman pencipta karya seni rupa terapan 3 dimensi dalam mencipta karyanya selain harus mempertimbangkan  keindahan bentuk juga harus memikirkan …</t>
+  </si>
+  <si>
+    <t>fungsi praktis</t>
+  </si>
+  <si>
+    <t>idealism</t>
+  </si>
+  <si>
+    <t>biaya</t>
+  </si>
+  <si>
+    <t>pemasaran</t>
+  </si>
+  <si>
+    <t>be_assets\exam\exam_4ad5d1b8-f9e6-497b-a0cb-05b21c927da2.png</t>
+  </si>
+  <si>
+    <t>komposisi</t>
+  </si>
+  <si>
+    <t>34eac67bdd</t>
+  </si>
+  <si>
+    <t>Melihat karya motif batik yang tampil pada gambar di atas, dapat dianalisa bahwa jenis motif batik yang tampil tersebut adalah proses pembuatannya dengan menggunakan teknik …</t>
+  </si>
+  <si>
+    <t>batik cap</t>
+  </si>
+  <si>
+    <t>ecoprint</t>
+  </si>
+  <si>
+    <t>celup</t>
+  </si>
+  <si>
+    <t>remekan</t>
+  </si>
+  <si>
+    <t>tulis</t>
+  </si>
+  <si>
+    <t>3fb0d3a55b</t>
+  </si>
+  <si>
+    <t>Jenis kritik yang menggunakan gaya bahasa dan istilah yang mudah dipahami oleh orang awam adalah kritik</t>
+  </si>
+  <si>
+    <t>umum</t>
+  </si>
+  <si>
+    <t>dasar</t>
+  </si>
+  <si>
+    <t>keilmuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bahasa </t>
+  </si>
+  <si>
+    <t>populer</t>
   </si>
 </sst>
 </file>
@@ -50,7 +670,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -60,17 +680,70 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -84,24 +757,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="14">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,19 +806,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>876300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 5" descr=""/>
+        <xdr:cNvPr id="1" name="Picture 26" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -141,44 +831,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="0">
-          <a:ext cx="2162175" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2676525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1571625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="2628900" cy="1504950"/>
+          <a:ext cx="923925" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,100 +1133,2223 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="61" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="42.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" customHeight="1" ht="80.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customHeight="1" ht="129.75">
-      <c r="A11">
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" customHeight="1" ht="135">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" customHeight="1" ht="150">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1"/>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1"/>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1"/>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1"/>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1"/>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1"/>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" customHeight="1" ht="75">
+      <c r="A80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" customHeight="1" ht="30">
+      <c r="A81" s="1"/>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1"/>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" customHeight="1" ht="30">
+      <c r="A83" s="1"/>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1"/>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1"/>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1"/>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1"/>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1"/>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" customHeight="1" ht="270">
+      <c r="A92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1"/>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1"/>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1"/>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1"/>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" customHeight="1" ht="45">
+      <c r="A97" s="1"/>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1"/>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1"/>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1"/>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1"/>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1"/>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1"/>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1"/>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1"/>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1"/>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1"/>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1"/>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1"/>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1"/>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1"/>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1"/>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1"/>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1"/>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1"/>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1"/>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1"/>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1"/>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1"/>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1"/>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1"/>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1"/>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1"/>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1"/>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1"/>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1"/>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1"/>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1"/>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1"/>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1"/>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1"/>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1"/>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1"/>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1"/>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1"/>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1"/>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1"/>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1"/>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1"/>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1"/>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1"/>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1"/>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1"/>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1"/>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1"/>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1"/>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1"/>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1"/>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1"/>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1"/>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1"/>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1"/>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1"/>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1"/>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1"/>
+      <c r="B169" t="s">
+        <v>200</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" customHeight="1" ht="409.5">
+      <c r="A170" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1"/>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1"/>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1"/>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1"/>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1"/>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1"/>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1"/>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1"/>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1"/>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1"/>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/be_assets/exam/tempImportExam.xlsx
+++ b/public/be_assets/exam/tempImportExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>KODE</t>
   </si>
@@ -29,49 +29,115 @@
     <t>JAWABAN</t>
   </si>
   <si>
-    <t>9fc8747327</t>
+    <t>d81566702c</t>
   </si>
   <si>
     <t>Soal</t>
   </si>
   <si>
+    <t>Satu tambah satu hasilnya dua berapa hayo</t>
+  </si>
+  <si>
     <t>option</t>
   </si>
   <si>
-    <t>ea4c51af01</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>0a8e95c43c</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_2730d205-308c-4b7f-8f1a-e344b893b7a7.jpeg</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_c7b09549-68b6-4005-97d8-16d08884aeb2.jpeg</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_6453ba52-77d8-4c48-b94d-42833a2d3f6e.jpeg</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_59845ae0-63f3-4fb7-a20f-3d430e11e88d.png</t>
+    <t>satu</t>
+  </si>
+  <si>
+    <t>dua</t>
+  </si>
+  <si>
+    <t>tiga</t>
+  </si>
+  <si>
+    <t>empat</t>
+  </si>
+  <si>
+    <t>lima puluh</t>
+  </si>
+  <si>
+    <t>9a1ffa509a</t>
+  </si>
+  <si>
+    <t>Saya suka makan buah buahan seperti buah naga dan stroberi. Buah apa yang tidak saya sukai ?</t>
+  </si>
+  <si>
+    <t>buah naga</t>
+  </si>
+  <si>
+    <t>buah stroberi</t>
+  </si>
+  <si>
+    <t>buah apel</t>
+  </si>
+  <si>
+    <t>buah durian</t>
+  </si>
+  <si>
+    <t>buah busuk</t>
+  </si>
+  <si>
+    <t>1bba26e08d</t>
+  </si>
+  <si>
+    <t>Bendera indonesia</t>
+  </si>
+  <si>
+    <t>Bendera Jepang</t>
+  </si>
+  <si>
+    <t>Bendera ?</t>
+  </si>
+  <si>
+    <t>Itu Apel</t>
+  </si>
+  <si>
+    <t>Kelereng api</t>
+  </si>
+  <si>
+    <t>13b5a4fd66</t>
+  </si>
+  <si>
+    <t>Kopi kapal apa yang ada apinya ?</t>
+  </si>
+  <si>
+    <t>kopiyama</t>
+  </si>
+  <si>
+    <t>kopiyah</t>
+  </si>
+  <si>
+    <t>kopi kapal api</t>
+  </si>
+  <si>
+    <t>kopiko</t>
+  </si>
+  <si>
+    <t>koko</t>
+  </si>
+  <si>
+    <t>2902a1814d</t>
+  </si>
+  <si>
+    <t>Buat ini mudah</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>siap</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ashyaaap</t>
+  </si>
+  <si>
+    <t>be_assets\exam\exam_f176d8ac-4283-4bfc-8f36-e58d89378d6e.png</t>
   </si>
 </sst>
 </file>
@@ -127,15 +193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1228725</xdr:rowOff>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -152,118 +218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="0">
-          <a:ext cx="1638300" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="1343025" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2343150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 6" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="1790700" cy="2257425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 8" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="828675" cy="333375"/>
+          <a:ext cx="1247775" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,15 +520,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="28.85546875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -590,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="99">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -598,16 +553,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -616,10 +571,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -628,22 +583,22 @@
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customHeight="1" ht="91.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -652,33 +607,33 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customHeight="1" ht="28.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -687,22 +642,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -711,10 +666,10 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -723,45 +678,45 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" customHeight="1" ht="184.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" customHeight="1" ht="73.5">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -770,10 +725,10 @@
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -782,10 +737,10 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -794,13 +749,155 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +905,8 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/be_assets/exam/tempImportExam.xlsx
+++ b/public/be_assets/exam/tempImportExam.xlsx
@@ -137,7 +137,7 @@
     <t>ashyaaap</t>
   </si>
   <si>
-    <t>be_assets\exam\exam_f176d8ac-4283-4bfc-8f36-e58d89378d6e.png</t>
+    <t>be_assets\exam\exam_5aae6bf3-7a53-4fe4-a54f-183265d5eed0.png</t>
   </si>
 </sst>
 </file>
